--- a/Developer/developer_log.xlsx
+++ b/Developer/developer_log.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3BE5BA-E887-4A5A-A5D0-9E0E29297DDF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B41F143-5431-4D5F-B053-1B6441477CA4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="810" windowWidth="14610" windowHeight="13665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="570" windowWidth="22290" windowHeight="13665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -249,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -332,6 +332,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -341,7 +344,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -627,35 +630,36 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8:Q9"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
     <col min="10" max="10" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="G1" s="31" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>6</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="1" t="s">
@@ -681,19 +685,19 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="35">
+      <c r="A2" s="32">
         <v>43755</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="32">
         <v>43756</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="36">
         <v>43757</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="36">
         <v>43758</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="36">
         <v>43759</v>
       </c>
       <c r="F2" s="4">
@@ -801,11 +805,21 @@
         <v>17</v>
       </c>
       <c r="K4" s="22"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="20"/>
+      <c r="L4" s="10">
+        <v>43758</v>
+      </c>
+      <c r="M4" s="14">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="N4" s="14">
+        <v>0.9375</v>
+      </c>
+      <c r="O4" s="18">
+        <v>3</v>
+      </c>
+      <c r="P4" s="20">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -944,15 +958,15 @@
       <c r="P8" s="20"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
       <c r="I9" s="5">
         <v>8</v>
       </c>

--- a/Developer/developer_log.xlsx
+++ b/Developer/developer_log.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B41F143-5431-4D5F-B053-1B6441477CA4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1974A983-2B82-4C44-B6DB-0E4F1652FA35}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="570" windowWidth="22290" windowHeight="13665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -249,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -267,9 +267,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -285,31 +282,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -319,12 +301,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -335,6 +311,9 @@
     <xf numFmtId="16" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -344,7 +323,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -630,7 +612,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,25 +622,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="23" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="3"/>
@@ -671,13 +653,13 @@
       <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="20" t="s">
         <v>12</v>
       </c>
       <c r="P1" s="2" t="s">
@@ -685,19 +667,19 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="32">
+      <c r="A2" s="24">
         <v>43755</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="24">
         <v>43756</v>
       </c>
-      <c r="C2" s="36">
+      <c r="C2" s="25">
         <v>43757</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D2" s="25">
         <v>43758</v>
       </c>
-      <c r="E2" s="36">
+      <c r="E2" s="25">
         <v>43759</v>
       </c>
       <c r="F2" s="4">
@@ -707,26 +689,26 @@
         <v>43761</v>
       </c>
       <c r="H2" s="3"/>
-      <c r="I2" s="24">
+      <c r="I2" s="18">
         <v>1</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="10">
+      <c r="K2" s="16"/>
+      <c r="L2" s="9">
         <v>43755</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="N2" s="14">
+      <c r="N2" s="12">
         <v>0.95833333333333337</v>
       </c>
-      <c r="O2" s="18">
+      <c r="O2" s="14">
         <v>1</v>
       </c>
-      <c r="P2" s="20">
+      <c r="P2" s="15">
         <v>60</v>
       </c>
     </row>
@@ -753,26 +735,26 @@
         <v>43768</v>
       </c>
       <c r="H3" s="3"/>
-      <c r="I3" s="24">
+      <c r="I3" s="18">
         <v>2</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="26">
+      <c r="K3" s="17"/>
+      <c r="L3" s="9">
         <v>43756</v>
       </c>
-      <c r="M3" s="27">
+      <c r="M3" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="12">
         <v>0.95833333333333337</v>
       </c>
-      <c r="O3" s="19">
+      <c r="O3" s="14">
         <v>3</v>
       </c>
-      <c r="P3" s="21">
+      <c r="P3" s="15">
         <v>60</v>
       </c>
     </row>
@@ -804,20 +786,20 @@
       <c r="J4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="10">
+      <c r="K4" s="16"/>
+      <c r="L4" s="9">
         <v>43758</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="12">
         <v>0.9375</v>
       </c>
-      <c r="O4" s="18">
+      <c r="O4" s="14">
         <v>3</v>
       </c>
-      <c r="P4" s="20">
+      <c r="P4" s="15">
         <v>30</v>
       </c>
     </row>
@@ -849,12 +831,22 @@
       <c r="J5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="21"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="9">
+        <v>43759</v>
+      </c>
+      <c r="M5" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="N5" s="12">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="O5" s="14">
+        <v>5</v>
+      </c>
+      <c r="P5" s="15">
+        <v>60</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -884,12 +876,16 @@
       <c r="J6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="22"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="20"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="9">
+        <v>43760</v>
+      </c>
+      <c r="M6" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="N6" s="12"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="15"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -917,12 +913,12 @@
         <v>6</v>
       </c>
       <c r="J7" s="6"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="21"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="15"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -950,423 +946,423 @@
         <v>7</v>
       </c>
       <c r="J8" s="6"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="20"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="15"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
       <c r="I9" s="5">
         <v>8</v>
       </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="21"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="15"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>1</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>2</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>3</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>4</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>5</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>6</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <v>7</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <v>9</v>
       </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="20"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="15"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>8</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>9</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>10</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>11</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>12</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>13</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <v>14</v>
       </c>
-      <c r="K11" s="23"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="21"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="15"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12" s="11">
         <v>15</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>16</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>17</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>18</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>19</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <v>20</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="11">
         <v>21</v>
       </c>
-      <c r="K12" s="23"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="20"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="15"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="A13" s="11">
         <v>22</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>23</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>24</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>25</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <v>26</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>27</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="11">
         <v>28</v>
       </c>
-      <c r="K13" s="23"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="21"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="15"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="A14" s="11">
         <v>29</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>30</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>31</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <v>32</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <v>33</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>34</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="11">
         <v>35</v>
       </c>
-      <c r="K14" s="23"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="20"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="15"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="A15" s="11">
         <v>36</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <v>37</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>38</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <v>39</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="11">
         <v>40</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="11">
         <v>41</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="11">
         <v>42</v>
       </c>
-      <c r="K15" s="23"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="21"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="15"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="A16" s="11">
         <v>43</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>44</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>45</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <v>46</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <v>47</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="11">
         <v>48</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="11">
         <v>49</v>
       </c>
-      <c r="K16" s="23"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="20"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="15"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="A17" s="11">
         <v>50</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <v>51</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>52</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <v>53</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <v>54</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
         <v>55</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="11">
         <v>56</v>
       </c>
-      <c r="K17" s="23"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="21"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="15"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="A18" s="11">
         <v>57</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <v>58</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>59</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="11">
         <v>60</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="11">
         <v>61</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="11">
         <v>62</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="11">
         <v>63</v>
       </c>
-      <c r="K18" s="23"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="20"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="15"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+      <c r="A19" s="11">
         <v>64</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <v>65</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <v>66</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <v>67</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="11">
         <v>68</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="11">
         <v>69</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="11">
         <v>70</v>
       </c>
-      <c r="K19" s="23"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="21"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="15"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+      <c r="A20" s="11">
         <v>71</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="11">
         <v>72</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <v>73</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="11">
         <v>74</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="11">
         <v>75</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="11">
         <v>76</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="11">
         <v>77</v>
       </c>
-      <c r="K20" s="23"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="20"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="15"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+      <c r="A21" s="11">
         <v>78</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="11">
         <v>79</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="11">
         <v>80</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="11">
         <v>81</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="11">
         <v>82</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="11">
         <v>83</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="11">
         <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+      <c r="A22" s="11">
         <v>85</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="11">
         <v>86</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="11">
         <v>87</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="11">
         <v>88</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="11">
         <v>89</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="11">
         <v>90</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="11">
         <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+      <c r="A23" s="11">
         <v>92</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="11">
         <v>93</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="11">
         <v>94</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="11">
         <v>95</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="11">
         <v>96</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="11">
         <v>97</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="11">
         <v>98</v>
       </c>
     </row>
